--- a/Data/Report.xlsx
+++ b/Data/Report.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="937">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="1445">
   <x:si>
     <x:t>Modules</x:t>
   </x:si>
@@ -2838,6 +2838,1530 @@
   </x:si>
   <x:si>
     <x:t>04-02-2021 06:36:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:36:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:36:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:37:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:37:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:37:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:37:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:37:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:38:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:38:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:38:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:39:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:49:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:49:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:49:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:49:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:49:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:49:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:50:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:50:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:51:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:51:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:51:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meta Data validation is successfully doneFIBH-MAST-68706</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 10:51:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:10:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:11:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:11:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:11:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:11:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:11:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:12:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:12:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:17:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:18:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:18:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:18:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:18:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:18:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:18:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:18:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:19:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:19:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:31:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:34:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:37:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:48:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 11:55:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:17:19 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:38:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:38:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:38:21 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:38:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:38:24 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:38:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:38:34 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:38:43 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:38:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:39:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 12:39:17 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:09:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:10:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:10:09 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:10:11 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:10:12 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:10:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:10:22 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:10:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:10:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:10:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:11:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subtitle Review Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successfully subtitle review task got picked</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:11:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Streaming on subtitle Review Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Streaming is happening on subtitle review task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:11:34 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subtitle Review Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On Click of subtitle, Player TCin is changing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:11:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marker is available on the player</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:13:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed to adding comments on marker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:13:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:27:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:27:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:27:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:27:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:27:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:27:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:28:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:28:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:28:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:28:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Subtitle Review Task </x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:28:43 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:29:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:29:20 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:57:09 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:57:24 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:57:34 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:57:42 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:57:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:57:53 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:57:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:57:56 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:58:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:58:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:58:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:58:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:58:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:59:19 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:59:24 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:59:45 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 04:59:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:10:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:10:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:10:58 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:11:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:11:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:11:18 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:11:20 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:11:21 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:11:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:11:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:11:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:11:56 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:12:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:12:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:12:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:22:10 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:22:19 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:22:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:22:37 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:22:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:22:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:22:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:22:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:22:59 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:23:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:23:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:23:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:23:42 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:26:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:26:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:58:12 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:58:22 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:58:31 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:58:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:58:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:59:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:59:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:59:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:59:15 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:59:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:59:31 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:59:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 05:59:57 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:00:33 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:00:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:00:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successfully adding comments on marker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:00:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:41:43 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:41:55 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:42:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:42:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:42:22 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:42:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:42:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:42:55 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:43:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:43:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:54:18 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:54:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:54:42 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:54:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:55:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>05-02-2021 06:59:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:53:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:54:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:54:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:54:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:54:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:54:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:54:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:54:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:55:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:55:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:55:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:56:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:56:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:56:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 10:56:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:17:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:17:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:18:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:18:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:18:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meta Data validation is successfully doneSubtitle Review</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:25:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meta Data validation is successfully doneTNT SERIES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:27:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:36:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:36:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:36:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:37:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:37:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:37:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:37:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:37:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:37:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:37:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:38:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:38:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:38:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:38:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:39:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:39:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:47:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:47:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:47:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:47:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:48:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:48:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 11:48:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:45:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:45:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:45:56 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:46:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:46:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meta Data validation is successfully doneFIBH-MAST-1488104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:46:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:46:29 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:46:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:46:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:46:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:46:55 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:47:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:47:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:47:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:48:24 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:48:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:48:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:49:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 12:49:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 01:55:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 01:55:37 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:04:35 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:04:44 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:09:12 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:09:21 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:11:59 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:12:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:48:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:48:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:56:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 02:56:55 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 03:05:56 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 03:06:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 03:15:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 03:17:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 03:17:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 04:50:43 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 04:50:53 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 04:52:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 04:52:59 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:05:34 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:05:44 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:05:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:06:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:06:09 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:06:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:06:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:06:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:06:58 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:07:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:07:15 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:07:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:07:31 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:08:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:08:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:09:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:09:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:13:15 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:13:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:13:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:13:41 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:13:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:14:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:14:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:14:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:14:15 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:14:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:14:31 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:14:40 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:14:41 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:15:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:16:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:16:22 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:16:27 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:16:37 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:16:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:16:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:16:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:34:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:34:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:34:41 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:34:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:34:59 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:35:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:35:15 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:35:17 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:35:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:35:33 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:35:42 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:35:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meta Data validation is not successfully doneFIBH-MAST-1488104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:35:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:48:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:48:26 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:48:34 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:48:43 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:48:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:49:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:49:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meta Data validation is not successfully doneTNT SERIES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:49:09 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:49:17 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:49:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:49:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:49:45 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:49:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:50:21 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:51:09 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:57:18 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>On Click of subtitle, Player TCin is not changing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 05:57:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:00:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:00:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:00:56 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:01:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:01:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:01:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:01:29 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:01:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:01:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:01:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:01:57 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:02:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:02:09 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:02:41 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:03:29 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:04:35 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:04:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:04:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:04:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:04:59 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:05:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:16:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:16:56 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:17:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:17:17 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:17:26 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:17:41 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:17:43 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:17:44 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:17:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:18:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:18:15 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:18:24 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:18:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:19:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:19:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:20:20 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:20:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:20:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:20:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:20:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:20:56 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:43:10 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:43:19 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:43:27 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:43:36 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:43:45 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:44:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:44:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:44:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:44:10 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:44:21 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:44:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:44:41 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:44:45 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:45:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:53:37 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:53:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:53:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:54:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:54:12 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:54:27 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:54:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:54:29 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:54:38 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:54:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:55:00 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:55:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:55:12 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:55:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:55:31 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:59:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:59:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 06:59:57 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:00:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:00:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:00:29 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:00:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:00:31 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:00:40 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:00:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:01:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:01:11 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:01:15 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:01:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:01:34 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:02:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:02:18 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:02:28 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:02:30 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:02:45 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:02:53 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Submit Subtitle Review task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not submited the subtitle review task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:02:59 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:31:24 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:31:42 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:31:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Create Subtitle Review task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Successfully Created the subtitle review task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:31:57 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:32:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:32:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:32:29 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:32:31 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:32:32 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:32:41 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:32:52 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inprogress Subtitle Review task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Not in progress subtitle review task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:33:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:33:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:33:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:33:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:33:11 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:33:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:33:16 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:40:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:40:15 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:40:24 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:40:31 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:40:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:40:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:41:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:41:05 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:41:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:41:15 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:41:25 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:41:37 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:41:47 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:41:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:41:53 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:42:10 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:42:57 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:43:02 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:43:12 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:43:14 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:48:09 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:48:18 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:48:27 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:48:33 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:48:41 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:48:50 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:49:06 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:49:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:49:08 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:49:17 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:49:27 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:49:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:49:48 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:49:53 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:49:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:50:12 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:50:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:50:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:03 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subtitle_Review_Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subtitle review task Approved successfully</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:23 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:31 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:40 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:46 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:49 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:51 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:54 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:56 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:51:59 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:52:01 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:52:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08-02-2021 07:52:06 PM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -21097,6 +22621,6768 @@
       </x:c>
       <x:c r="D912" s="3" t="s">
         <x:v>936</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="913" spans="1:1025">
+      <x:c r="A913" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B913" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C913" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D913" s="3" t="s">
+        <x:v>937</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="914" spans="1:1025">
+      <x:c r="A914" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B914" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C914" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D914" s="3" t="s">
+        <x:v>938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="915" spans="1:1025">
+      <x:c r="A915" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B915" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C915" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D915" s="3" t="s">
+        <x:v>939</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="916" spans="1:1025">
+      <x:c r="A916" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B916" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C916" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D916" s="3" t="s">
+        <x:v>940</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="917" spans="1:1025">
+      <x:c r="A917" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B917" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C917" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D917" s="3" t="s">
+        <x:v>941</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="918" spans="1:1025">
+      <x:c r="A918" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B918" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C918" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D918" s="3" t="s">
+        <x:v>942</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="919" spans="1:1025">
+      <x:c r="A919" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B919" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C919" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D919" s="3" t="s">
+        <x:v>943</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="920" spans="1:1025">
+      <x:c r="A920" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B920" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C920" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D920" s="3" t="s">
+        <x:v>944</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="921" spans="1:1025">
+      <x:c r="A921" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B921" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C921" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D921" s="3" t="s">
+        <x:v>945</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="922" spans="1:1025">
+      <x:c r="A922" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B922" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C922" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D922" s="3" t="s">
+        <x:v>946</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="923" spans="1:1025">
+      <x:c r="A923" s="3" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B923" s="3" t="s">
+        <x:v>853</x:v>
+      </x:c>
+      <x:c r="C923" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D923" s="3" t="s">
+        <x:v>947</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="924" spans="1:1025">
+      <x:c r="A924" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B924" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C924" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D924" s="3" t="s">
+        <x:v>948</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="925" spans="1:1025">
+      <x:c r="A925" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B925" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C925" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D925" s="3" t="s">
+        <x:v>949</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="926" spans="1:1025">
+      <x:c r="A926" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B926" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C926" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D926" s="3" t="s">
+        <x:v>950</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="927" spans="1:1025">
+      <x:c r="A927" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B927" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C927" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D927" s="3" t="s">
+        <x:v>951</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="928" spans="1:1025">
+      <x:c r="A928" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B928" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C928" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D928" s="3" t="s">
+        <x:v>952</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="929" spans="1:1025">
+      <x:c r="A929" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B929" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C929" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D929" s="3" t="s">
+        <x:v>953</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="930" spans="1:1025">
+      <x:c r="A930" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B930" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C930" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D930" s="3" t="s">
+        <x:v>954</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="931" spans="1:1025">
+      <x:c r="A931" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B931" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C931" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D931" s="3" t="s">
+        <x:v>955</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="932" spans="1:1025">
+      <x:c r="A932" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B932" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C932" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D932" s="3" t="s">
+        <x:v>956</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="933" spans="1:1025">
+      <x:c r="A933" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B933" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C933" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D933" s="3" t="s">
+        <x:v>957</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="934" spans="1:1025">
+      <x:c r="A934" s="3" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B934" s="3" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="C934" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D934" s="3" t="s">
+        <x:v>958</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="935" spans="1:1025">
+      <x:c r="A935" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B935" s="3" t="s">
+        <x:v>959</x:v>
+      </x:c>
+      <x:c r="C935" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D935" s="3" t="s">
+        <x:v>960</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="936" spans="1:1025">
+      <x:c r="A936" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B936" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C936" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D936" s="3" t="s">
+        <x:v>961</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="937" spans="1:1025">
+      <x:c r="A937" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B937" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C937" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D937" s="3" t="s">
+        <x:v>962</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="938" spans="1:1025">
+      <x:c r="A938" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B938" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C938" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D938" s="3" t="s">
+        <x:v>963</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="939" spans="1:1025">
+      <x:c r="A939" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B939" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C939" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D939" s="3" t="s">
+        <x:v>964</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="940" spans="1:1025">
+      <x:c r="A940" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B940" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C940" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D940" s="3" t="s">
+        <x:v>965</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="941" spans="1:1025">
+      <x:c r="A941" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B941" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C941" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D941" s="3" t="s">
+        <x:v>966</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="942" spans="1:1025">
+      <x:c r="A942" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B942" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C942" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D942" s="3" t="s">
+        <x:v>967</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="943" spans="1:1025">
+      <x:c r="A943" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B943" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C943" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D943" s="3" t="s">
+        <x:v>968</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="944" spans="1:1025">
+      <x:c r="A944" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B944" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C944" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D944" s="3" t="s">
+        <x:v>969</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="945" spans="1:1025">
+      <x:c r="A945" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B945" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C945" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D945" s="3" t="s">
+        <x:v>970</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="946" spans="1:1025">
+      <x:c r="A946" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B946" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C946" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D946" s="3" t="s">
+        <x:v>971</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="947" spans="1:1025">
+      <x:c r="A947" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B947" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C947" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D947" s="3" t="s">
+        <x:v>972</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="948" spans="1:1025">
+      <x:c r="A948" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B948" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C948" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D948" s="3" t="s">
+        <x:v>973</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="949" spans="1:1025">
+      <x:c r="A949" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B949" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C949" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D949" s="3" t="s">
+        <x:v>974</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="950" spans="1:1025">
+      <x:c r="A950" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B950" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C950" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D950" s="3" t="s">
+        <x:v>975</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="951" spans="1:1025">
+      <x:c r="A951" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B951" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C951" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D951" s="3" t="s">
+        <x:v>976</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="952" spans="1:1025">
+      <x:c r="A952" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B952" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C952" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D952" s="3" t="s">
+        <x:v>977</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="953" spans="1:1025">
+      <x:c r="A953" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B953" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C953" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D953" s="3" t="s">
+        <x:v>978</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="954" spans="1:1025">
+      <x:c r="A954" s="3" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B954" s="3" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="C954" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D954" s="3" t="s">
+        <x:v>979</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="955" spans="1:1025">
+      <x:c r="A955" s="3" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B955" s="3" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="C955" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D955" s="3" t="s">
+        <x:v>980</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="956" spans="1:1025">
+      <x:c r="A956" s="3" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B956" s="3" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="C956" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D956" s="3" t="s">
+        <x:v>981</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="957" spans="1:1025">
+      <x:c r="A957" s="3" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B957" s="3" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="C957" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D957" s="3" t="s">
+        <x:v>982</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="958" spans="1:1025">
+      <x:c r="A958" s="3" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B958" s="3" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="C958" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D958" s="3" t="s">
+        <x:v>983</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="959" spans="1:1025">
+      <x:c r="A959" s="3" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B959" s="3" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="C959" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D959" s="3" t="s">
+        <x:v>984</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="960" spans="1:1025">
+      <x:c r="A960" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B960" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C960" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D960" s="3" t="s">
+        <x:v>985</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="961" spans="1:1025">
+      <x:c r="A961" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B961" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C961" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D961" s="3" t="s">
+        <x:v>986</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="962" spans="1:1025">
+      <x:c r="A962" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B962" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C962" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D962" s="3" t="s">
+        <x:v>987</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="963" spans="1:1025">
+      <x:c r="A963" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B963" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C963" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D963" s="3" t="s">
+        <x:v>988</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="964" spans="1:1025">
+      <x:c r="A964" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B964" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C964" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D964" s="3" t="s">
+        <x:v>989</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="965" spans="1:1025">
+      <x:c r="A965" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B965" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C965" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D965" s="3" t="s">
+        <x:v>990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="966" spans="1:1025">
+      <x:c r="A966" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B966" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C966" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D966" s="3" t="s">
+        <x:v>991</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="967" spans="1:1025">
+      <x:c r="A967" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B967" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C967" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D967" s="3" t="s">
+        <x:v>992</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="968" spans="1:1025">
+      <x:c r="A968" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B968" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C968" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D968" s="3" t="s">
+        <x:v>993</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="969" spans="1:1025">
+      <x:c r="A969" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B969" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C969" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D969" s="3" t="s">
+        <x:v>994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="970" spans="1:1025">
+      <x:c r="A970" s="3" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B970" s="3" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="C970" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D970" s="3" t="s">
+        <x:v>995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="971" spans="1:1025">
+      <x:c r="A971" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B971" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C971" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D971" s="3" t="s">
+        <x:v>996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="972" spans="1:1025">
+      <x:c r="A972" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B972" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C972" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D972" s="3" t="s">
+        <x:v>997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="973" spans="1:1025">
+      <x:c r="A973" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B973" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C973" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D973" s="3" t="s">
+        <x:v>998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="974" spans="1:1025">
+      <x:c r="A974" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B974" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C974" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D974" s="3" t="s">
+        <x:v>999</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="975" spans="1:1025">
+      <x:c r="A975" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B975" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C975" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D975" s="3" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="976" spans="1:1025">
+      <x:c r="A976" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B976" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C976" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D976" s="3" t="s">
+        <x:v>1001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="977" spans="1:1025">
+      <x:c r="A977" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B977" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C977" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D977" s="3" t="s">
+        <x:v>1002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="978" spans="1:1025">
+      <x:c r="A978" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B978" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C978" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D978" s="3" t="s">
+        <x:v>1003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="979" spans="1:1025">
+      <x:c r="A979" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B979" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C979" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D979" s="3" t="s">
+        <x:v>1004</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="980" spans="1:1025">
+      <x:c r="A980" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B980" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C980" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D980" s="3" t="s">
+        <x:v>1005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="981" spans="1:1025">
+      <x:c r="A981" s="3" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B981" s="3" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="C981" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D981" s="3" t="s">
+        <x:v>1006</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="982" spans="1:1025">
+      <x:c r="A982" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B982" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C982" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D982" s="3" t="s">
+        <x:v>1009</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="983" spans="1:1025">
+      <x:c r="A983" s="3" t="s">
+        <x:v>1010</x:v>
+      </x:c>
+      <x:c r="B983" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C983" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D983" s="3" t="s">
+        <x:v>1012</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="984" spans="1:1025">
+      <x:c r="A984" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B984" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C984" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D984" s="3" t="s">
+        <x:v>1015</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="985" spans="1:1025">
+      <x:c r="A985" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B985" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C985" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D985" s="3" t="s">
+        <x:v>1017</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="986" spans="1:1025">
+      <x:c r="A986" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B986" s="3" t="s">
+        <x:v>1018</x:v>
+      </x:c>
+      <x:c r="C986" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D986" s="3" t="s">
+        <x:v>1019</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="987" spans="1:1025">
+      <x:c r="A987" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B987" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C987" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D987" s="3" t="s">
+        <x:v>1020</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="988" spans="1:1025">
+      <x:c r="A988" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B988" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C988" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D988" s="3" t="s">
+        <x:v>1021</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="989" spans="1:1025">
+      <x:c r="A989" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B989" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C989" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D989" s="3" t="s">
+        <x:v>1022</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="990" spans="1:1025">
+      <x:c r="A990" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B990" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C990" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D990" s="3" t="s">
+        <x:v>1023</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="991" spans="1:1025">
+      <x:c r="A991" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B991" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C991" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D991" s="3" t="s">
+        <x:v>1024</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="992" spans="1:1025">
+      <x:c r="A992" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B992" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C992" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D992" s="3" t="s">
+        <x:v>1025</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="993" spans="1:1025">
+      <x:c r="A993" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B993" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C993" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D993" s="3" t="s">
+        <x:v>1026</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="994" spans="1:1025">
+      <x:c r="A994" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B994" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C994" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D994" s="3" t="s">
+        <x:v>1027</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="995" spans="1:1025">
+      <x:c r="A995" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B995" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C995" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D995" s="3" t="s">
+        <x:v>1028</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="996" spans="1:1025">
+      <x:c r="A996" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B996" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C996" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D996" s="3" t="s">
+        <x:v>1029</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="997" spans="1:1025">
+      <x:c r="A997" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B997" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C997" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D997" s="3" t="s">
+        <x:v>1031</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="998" spans="1:1025">
+      <x:c r="A998" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B998" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C998" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D998" s="3" t="s">
+        <x:v>1032</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="999" spans="1:1025">
+      <x:c r="A999" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B999" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C999" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D999" s="3" t="s">
+        <x:v>1033</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1000" spans="1:1025">
+      <x:c r="A1000" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1000" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1000" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1000" s="3" t="s">
+        <x:v>1034</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1001" spans="1:1025">
+      <x:c r="A1001" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1001" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1001" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1001" s="3" t="s">
+        <x:v>1035</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1002" spans="1:1025">
+      <x:c r="A1002" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1002" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1002" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1002" s="3" t="s">
+        <x:v>1036</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1003" spans="1:1025">
+      <x:c r="A1003" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1003" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1003" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1003" s="3" t="s">
+        <x:v>1037</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1004" spans="1:1025">
+      <x:c r="A1004" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1004" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1004" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1004" s="3" t="s">
+        <x:v>1038</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1005" spans="1:1025">
+      <x:c r="A1005" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1005" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C1005" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1005" s="3" t="s">
+        <x:v>1039</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1006" spans="1:1025">
+      <x:c r="A1006" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1006" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C1006" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1006" s="3" t="s">
+        <x:v>1040</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1007" spans="1:1025">
+      <x:c r="A1007" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1007" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C1007" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1007" s="3" t="s">
+        <x:v>1041</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1008" spans="1:1025">
+      <x:c r="A1008" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1008" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1008" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1008" s="3" t="s">
+        <x:v>1042</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1009" spans="1:1025">
+      <x:c r="A1009" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1009" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1009" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1009" s="3" t="s">
+        <x:v>1043</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1010" spans="1:1025">
+      <x:c r="A1010" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1010" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1010" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1010" s="3" t="s">
+        <x:v>1044</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1011" spans="1:1025">
+      <x:c r="A1011" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1011" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1011" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1011" s="3" t="s">
+        <x:v>1045</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1012" spans="1:1025">
+      <x:c r="A1012" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1012" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1012" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1012" s="3" t="s">
+        <x:v>1046</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1013" spans="1:1025">
+      <x:c r="A1013" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1013" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1013" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1013" s="3" t="s">
+        <x:v>1047</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1014" spans="1:1025">
+      <x:c r="A1014" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1014" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1014" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1014" s="3" t="s">
+        <x:v>1048</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1015" spans="1:1025">
+      <x:c r="A1015" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1015" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1015" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1015" s="3" t="s">
+        <x:v>1049</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1016" spans="1:1025">
+      <x:c r="A1016" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1016" s="3" t="s">
+        <x:v>1018</x:v>
+      </x:c>
+      <x:c r="C1016" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1016" s="3" t="s">
+        <x:v>1050</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1017" spans="1:1025">
+      <x:c r="A1017" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1017" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1017" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1017" s="3" t="s">
+        <x:v>1051</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1018" spans="1:1025">
+      <x:c r="A1018" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1018" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1018" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1018" s="3" t="s">
+        <x:v>1052</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1019" spans="1:1025">
+      <x:c r="A1019" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1019" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1019" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1019" s="3" t="s">
+        <x:v>1053</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1020" spans="1:1025">
+      <x:c r="A1020" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1020" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1020" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1020" s="3" t="s">
+        <x:v>1054</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1021" spans="1:1025">
+      <x:c r="A1021" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1021" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1021" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1021" s="3" t="s">
+        <x:v>1055</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1022" spans="1:1025">
+      <x:c r="A1022" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1022" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C1022" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1022" s="3" t="s">
+        <x:v>1056</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1023" spans="1:1025">
+      <x:c r="A1023" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1023" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C1023" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1023" s="3" t="s">
+        <x:v>1057</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1024" spans="1:1025">
+      <x:c r="A1024" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1024" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C1024" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1024" s="3" t="s">
+        <x:v>1058</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1025" spans="1:1025">
+      <x:c r="A1025" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1025" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1025" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1025" s="3" t="s">
+        <x:v>1059</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1026" spans="1:1025">
+      <x:c r="A1026" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1026" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1026" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1026" s="3" t="s">
+        <x:v>1060</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1027" spans="1:1025">
+      <x:c r="A1027" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1027" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1027" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1027" s="3" t="s">
+        <x:v>1061</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1028" spans="1:1025">
+      <x:c r="A1028" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1028" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1028" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1028" s="3" t="s">
+        <x:v>1062</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1029" spans="1:1025">
+      <x:c r="A1029" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1029" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1029" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1029" s="3" t="s">
+        <x:v>1063</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1030" spans="1:1025">
+      <x:c r="A1030" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1030" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1030" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1030" s="3" t="s">
+        <x:v>1064</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1031" spans="1:1025">
+      <x:c r="A1031" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1031" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1031" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1031" s="3" t="s">
+        <x:v>1065</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1032" spans="1:1025">
+      <x:c r="A1032" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1032" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1032" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1032" s="3" t="s">
+        <x:v>1066</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1033" spans="1:1025">
+      <x:c r="A1033" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1033" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1033" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1033" s="3" t="s">
+        <x:v>1067</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1034" spans="1:1025">
+      <x:c r="A1034" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1034" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1034" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1034" s="3" t="s">
+        <x:v>1068</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1035" spans="1:1025">
+      <x:c r="A1035" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1035" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1035" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1035" s="3" t="s">
+        <x:v>1069</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1036" spans="1:1025">
+      <x:c r="A1036" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1036" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1036" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1036" s="3" t="s">
+        <x:v>1070</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1037" spans="1:1025">
+      <x:c r="A1037" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1037" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C1037" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1037" s="3" t="s">
+        <x:v>1071</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1038" spans="1:1025">
+      <x:c r="A1038" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1038" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C1038" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1038" s="3" t="s">
+        <x:v>1072</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1039" spans="1:1025">
+      <x:c r="A1039" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1039" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C1039" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1039" s="3" t="s">
+        <x:v>1073</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1040" spans="1:1025">
+      <x:c r="A1040" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1040" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1040" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1040" s="3" t="s">
+        <x:v>1074</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1041" spans="1:1025">
+      <x:c r="A1041" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1041" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1041" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1041" s="3" t="s">
+        <x:v>1075</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1042" spans="1:1025">
+      <x:c r="A1042" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1042" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1042" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1042" s="3" t="s">
+        <x:v>1076</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1043" spans="1:1025">
+      <x:c r="A1043" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1043" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1043" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1043" s="3" t="s">
+        <x:v>1077</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1044" spans="1:1025">
+      <x:c r="A1044" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1044" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1044" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1044" s="3" t="s">
+        <x:v>1078</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1045" spans="1:1025">
+      <x:c r="A1045" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1045" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1045" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1045" s="3" t="s">
+        <x:v>1079</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1046" spans="1:1025">
+      <x:c r="A1046" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1046" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1046" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1046" s="3" t="s">
+        <x:v>1080</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1047" spans="1:1025">
+      <x:c r="A1047" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1047" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1047" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1047" s="3" t="s">
+        <x:v>1081</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1048" spans="1:1025">
+      <x:c r="A1048" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1048" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1048" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1048" s="3" t="s">
+        <x:v>1082</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1049" spans="1:1025">
+      <x:c r="A1049" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1049" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1049" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1049" s="3" t="s">
+        <x:v>1083</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1050" spans="1:1025">
+      <x:c r="A1050" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1050" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1050" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1050" s="3" t="s">
+        <x:v>1084</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1051" spans="1:1025">
+      <x:c r="A1051" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1051" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1051" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1051" s="3" t="s">
+        <x:v>1085</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1052" spans="1:1025">
+      <x:c r="A1052" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1052" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C1052" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1052" s="3" t="s">
+        <x:v>1086</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1053" spans="1:1025">
+      <x:c r="A1053" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1053" s="3" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C1053" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1053" s="3" t="s">
+        <x:v>1087</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1054" spans="1:1025">
+      <x:c r="A1054" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1054" s="3" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="C1054" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1054" s="3" t="s">
+        <x:v>1088</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1055" spans="1:1025">
+      <x:c r="A1055" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1055" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1055" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1055" s="3" t="s">
+        <x:v>1089</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1056" spans="1:1025">
+      <x:c r="A1056" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1056" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1056" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1056" s="3" t="s">
+        <x:v>1090</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1057" spans="1:1025">
+      <x:c r="A1057" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1057" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1057" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1057" s="3" t="s">
+        <x:v>1091</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1058" spans="1:1025">
+      <x:c r="A1058" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1058" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1058" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1058" s="3" t="s">
+        <x:v>1092</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1059" spans="1:1025">
+      <x:c r="A1059" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1059" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1059" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1059" s="3" t="s">
+        <x:v>1093</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1060" spans="1:1025">
+      <x:c r="A1060" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1060" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1060" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1060" s="3" t="s">
+        <x:v>1094</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1061" spans="1:1025">
+      <x:c r="A1061" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1061" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1061" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1061" s="3" t="s">
+        <x:v>1095</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1062" spans="1:1025">
+      <x:c r="A1062" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1062" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1062" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1062" s="3" t="s">
+        <x:v>1096</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1063" spans="1:1025">
+      <x:c r="A1063" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1063" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="C1063" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1063" s="3" t="s">
+        <x:v>1098</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1064" spans="1:1025">
+      <x:c r="A1064" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1064" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1064" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1064" s="3" t="s">
+        <x:v>1099</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1065" spans="1:1025">
+      <x:c r="A1065" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1065" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1065" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1065" s="3" t="s">
+        <x:v>1100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1066" spans="1:1025">
+      <x:c r="A1066" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1066" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1066" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1066" s="3" t="s">
+        <x:v>1101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1067" spans="1:1025">
+      <x:c r="A1067" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1067" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1067" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1067" s="3" t="s">
+        <x:v>1102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1068" spans="1:1025">
+      <x:c r="A1068" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1068" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1068" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1068" s="3" t="s">
+        <x:v>1103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1069" spans="1:1025">
+      <x:c r="A1069" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1069" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C1069" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1069" s="3" t="s">
+        <x:v>1104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1070" spans="1:1025">
+      <x:c r="A1070" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1070" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1070" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1070" s="3" t="s">
+        <x:v>1105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1071" spans="1:1025">
+      <x:c r="A1071" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1071" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1071" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1071" s="3" t="s">
+        <x:v>1106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1072" spans="1:1025">
+      <x:c r="A1072" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1072" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1072" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1072" s="3" t="s">
+        <x:v>1107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1073" spans="1:1025">
+      <x:c r="A1073" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1073" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1073" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1073" s="3" t="s">
+        <x:v>1108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1074" spans="1:1025">
+      <x:c r="A1074" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1074" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1074" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1074" s="3" t="s">
+        <x:v>1109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1075" spans="1:1025">
+      <x:c r="A1075" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1075" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1075" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1075" s="3" t="s">
+        <x:v>1110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1076" spans="1:1025">
+      <x:c r="A1076" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1076" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1076" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1076" s="3" t="s">
+        <x:v>1111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1077" spans="1:1025">
+      <x:c r="A1077" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1077" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1077" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1077" s="3" t="s">
+        <x:v>1112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1078" spans="1:1025">
+      <x:c r="A1078" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1078" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1078" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1078" s="3" t="s">
+        <x:v>1113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1079" spans="1:1025">
+      <x:c r="A1079" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1079" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C1079" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1079" s="3" t="s">
+        <x:v>1114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1080" spans="1:1025">
+      <x:c r="A1080" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1080" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1080" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1080" s="3" t="s">
+        <x:v>1115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1081" spans="1:1025">
+      <x:c r="A1081" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1081" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1081" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1081" s="3" t="s">
+        <x:v>1116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1082" spans="1:1025">
+      <x:c r="A1082" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1082" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1082" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1082" s="3" t="s">
+        <x:v>1117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1083" spans="1:1025">
+      <x:c r="A1083" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1083" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1083" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1083" s="3" t="s">
+        <x:v>1118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1084" spans="1:1025">
+      <x:c r="A1084" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1084" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1084" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1084" s="3" t="s">
+        <x:v>1119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1085" spans="1:1025">
+      <x:c r="A1085" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1085" s="3" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="C1085" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1085" s="3" t="s">
+        <x:v>1120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1086" spans="1:1025">
+      <x:c r="A1086" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1086" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1086" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1086" s="3" t="s">
+        <x:v>1121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1087" spans="1:1025">
+      <x:c r="A1087" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1087" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1087" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1087" s="3" t="s">
+        <x:v>1122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1088" spans="1:1025">
+      <x:c r="A1088" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1088" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1088" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1088" s="3" t="s">
+        <x:v>1123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1089" spans="1:1025">
+      <x:c r="A1089" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1089" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1089" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1089" s="3" t="s">
+        <x:v>1124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1090" spans="1:1025">
+      <x:c r="A1090" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1090" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1090" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1090" s="3" t="s">
+        <x:v>1125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1091" spans="1:1025">
+      <x:c r="A1091" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1091" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1091" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1091" s="3" t="s">
+        <x:v>1126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1092" spans="1:1025">
+      <x:c r="A1092" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1092" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1092" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1092" s="3" t="s">
+        <x:v>1127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1093" spans="1:1025">
+      <x:c r="A1093" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1093" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1093" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1093" s="3" t="s">
+        <x:v>1128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1094" spans="1:1025">
+      <x:c r="A1094" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1094" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="C1094" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1094" s="3" t="s">
+        <x:v>1129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1095" spans="1:1025">
+      <x:c r="A1095" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1095" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1095" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1095" s="3" t="s">
+        <x:v>1130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1096" spans="1:1025">
+      <x:c r="A1096" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1096" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1096" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1096" s="3" t="s">
+        <x:v>1131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1097" spans="1:1025">
+      <x:c r="A1097" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1097" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1097" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1097" s="3" t="s">
+        <x:v>1132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1098" spans="1:1025">
+      <x:c r="A1098" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1098" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1098" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1098" s="3" t="s">
+        <x:v>1133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1099" spans="1:1025">
+      <x:c r="A1099" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1099" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1099" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1099" s="3" t="s">
+        <x:v>1134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1100" spans="1:1025">
+      <x:c r="A1100" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1100" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1100" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1100" s="3" t="s">
+        <x:v>1136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1101" spans="1:1025">
+      <x:c r="A1101" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1101" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1101" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1101" s="3" t="s">
+        <x:v>1138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1102" spans="1:1025">
+      <x:c r="A1102" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1102" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1102" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1102" s="3" t="s">
+        <x:v>1139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1103" spans="1:1025">
+      <x:c r="A1103" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1103" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1103" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1103" s="3" t="s">
+        <x:v>1140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1104" spans="1:1025">
+      <x:c r="A1104" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1104" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1104" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1104" s="3" t="s">
+        <x:v>1141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1105" spans="1:1025">
+      <x:c r="A1105" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1105" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1105" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1105" s="3" t="s">
+        <x:v>1142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1106" spans="1:1025">
+      <x:c r="A1106" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1106" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1106" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1106" s="3" t="s">
+        <x:v>1143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1107" spans="1:1025">
+      <x:c r="A1107" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1107" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1107" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1107" s="3" t="s">
+        <x:v>1144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1108" spans="1:1025">
+      <x:c r="A1108" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1108" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1108" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1108" s="3" t="s">
+        <x:v>1145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1109" spans="1:1025">
+      <x:c r="A1109" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1109" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1109" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1109" s="3" t="s">
+        <x:v>1146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1110" spans="1:1025">
+      <x:c r="A1110" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1110" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1110" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1110" s="3" t="s">
+        <x:v>1147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1111" spans="1:1025">
+      <x:c r="A1111" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1111" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1111" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1111" s="3" t="s">
+        <x:v>1148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1112" spans="1:1025">
+      <x:c r="A1112" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1112" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1112" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1112" s="3" t="s">
+        <x:v>1149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1113" spans="1:1025">
+      <x:c r="A1113" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1113" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1113" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1113" s="3" t="s">
+        <x:v>1150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1114" spans="1:1025">
+      <x:c r="A1114" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1114" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1114" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1114" s="3" t="s">
+        <x:v>1151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1115" spans="1:1025">
+      <x:c r="A1115" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1115" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1115" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1115" s="3" t="s">
+        <x:v>1152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1116" spans="1:1025">
+      <x:c r="A1116" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1116" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1116" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1116" s="3" t="s">
+        <x:v>1153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1117" spans="1:1025">
+      <x:c r="A1117" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1117" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="C1117" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1117" s="3" t="s">
+        <x:v>1154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1118" spans="1:1025">
+      <x:c r="A1118" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1118" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1118" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1118" s="3" t="s">
+        <x:v>1155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1119" spans="1:1025">
+      <x:c r="A1119" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1119" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1119" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1119" s="3" t="s">
+        <x:v>1156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1120" spans="1:1025">
+      <x:c r="A1120" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1120" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1120" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1120" s="3" t="s">
+        <x:v>1157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1121" spans="1:1025">
+      <x:c r="A1121" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1121" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1121" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1121" s="3" t="s">
+        <x:v>1158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1122" spans="1:1025">
+      <x:c r="A1122" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1122" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1122" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1122" s="3" t="s">
+        <x:v>1159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1123" spans="1:1025">
+      <x:c r="A1123" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1123" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1123" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1123" s="3" t="s">
+        <x:v>1160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1124" spans="1:1025">
+      <x:c r="A1124" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1124" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1124" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1124" s="3" t="s">
+        <x:v>1161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1125" spans="1:1025">
+      <x:c r="A1125" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1125" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1125" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1125" s="3" t="s">
+        <x:v>1162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1126" spans="1:1025">
+      <x:c r="A1126" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1126" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1126" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1126" s="3" t="s">
+        <x:v>1163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1127" spans="1:1025">
+      <x:c r="A1127" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1127" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1127" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1127" s="3" t="s">
+        <x:v>1164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1128" spans="1:1025">
+      <x:c r="A1128" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1128" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1128" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1128" s="3" t="s">
+        <x:v>1165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1129" spans="1:1025">
+      <x:c r="A1129" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1129" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1129" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1129" s="3" t="s">
+        <x:v>1166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1130" spans="1:1025">
+      <x:c r="A1130" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1130" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1130" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1130" s="3" t="s">
+        <x:v>1168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1131" spans="1:1025">
+      <x:c r="A1131" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1131" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1131" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1131" s="3" t="s">
+        <x:v>1169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1132" spans="1:1025">
+      <x:c r="A1132" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1132" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1132" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1132" s="3" t="s">
+        <x:v>1170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1133" spans="1:1025">
+      <x:c r="A1133" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1133" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1133" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1133" s="3" t="s">
+        <x:v>1171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1134" spans="1:1025">
+      <x:c r="A1134" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1134" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1134" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1134" s="3" t="s">
+        <x:v>1172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1135" spans="1:1025">
+      <x:c r="A1135" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1135" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1135" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1135" s="3" t="s">
+        <x:v>1173</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1136" spans="1:1025">
+      <x:c r="A1136" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1136" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1136" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1136" s="3" t="s">
+        <x:v>1174</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1137" spans="1:1025">
+      <x:c r="A1137" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1137" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1137" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1137" s="3" t="s">
+        <x:v>1175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1138" spans="1:1025">
+      <x:c r="A1138" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1138" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1138" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1138" s="3" t="s">
+        <x:v>1176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1139" spans="1:1025">
+      <x:c r="A1139" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1139" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1139" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1139" s="3" t="s">
+        <x:v>1177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1140" spans="1:1025">
+      <x:c r="A1140" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1140" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1140" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1140" s="3" t="s">
+        <x:v>1178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1141" spans="1:1025">
+      <x:c r="A1141" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1141" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1141" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1141" s="3" t="s">
+        <x:v>1179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1142" spans="1:1025">
+      <x:c r="A1142" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1142" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1142" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1142" s="3" t="s">
+        <x:v>1180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1143" spans="1:1025">
+      <x:c r="A1143" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1143" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="C1143" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1143" s="3" t="s">
+        <x:v>1181</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1144" spans="1:1025">
+      <x:c r="A1144" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1144" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1144" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1144" s="3" t="s">
+        <x:v>1182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1145" spans="1:1025">
+      <x:c r="A1145" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1145" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1145" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1145" s="3" t="s">
+        <x:v>1183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1146" spans="1:1025">
+      <x:c r="A1146" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1146" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1146" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1146" s="3" t="s">
+        <x:v>1184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1147" spans="1:1025">
+      <x:c r="A1147" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1147" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1147" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1147" s="3" t="s">
+        <x:v>1185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1148" spans="1:1025">
+      <x:c r="A1148" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1148" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1148" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1148" s="3" t="s">
+        <x:v>1186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1149" spans="1:1025">
+      <x:c r="A1149" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1149" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1149" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1149" s="3" t="s">
+        <x:v>1187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1150" spans="1:1025">
+      <x:c r="A1150" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1150" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1150" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1150" s="3" t="s">
+        <x:v>1188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1151" spans="1:1025">
+      <x:c r="A1151" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1151" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1151" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1151" s="3" t="s">
+        <x:v>1189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1152" spans="1:1025">
+      <x:c r="A1152" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1152" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1152" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1152" s="3" t="s">
+        <x:v>1190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1153" spans="1:1025">
+      <x:c r="A1153" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1153" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1153" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1153" s="3" t="s">
+        <x:v>1191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1154" spans="1:1025">
+      <x:c r="A1154" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1154" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1154" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1154" s="3" t="s">
+        <x:v>1192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1155" spans="1:1025">
+      <x:c r="A1155" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1155" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1155" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1155" s="3" t="s">
+        <x:v>1193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1156" spans="1:1025">
+      <x:c r="A1156" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1156" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1156" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1156" s="3" t="s">
+        <x:v>1194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1157" spans="1:1025">
+      <x:c r="A1157" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1157" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1157" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1157" s="3" t="s">
+        <x:v>1195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1158" spans="1:1025">
+      <x:c r="A1158" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1158" s="3" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="C1158" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1158" s="3" t="s">
+        <x:v>1196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1159" spans="1:1025">
+      <x:c r="A1159" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1159" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1159" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1159" s="3" t="s">
+        <x:v>1197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1160" spans="1:1025">
+      <x:c r="A1160" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1160" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1160" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1160" s="3" t="s">
+        <x:v>1198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1161" spans="1:1025">
+      <x:c r="A1161" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1161" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1161" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1161" s="3" t="s">
+        <x:v>1199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1162" spans="1:1025">
+      <x:c r="A1162" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1162" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1162" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1162" s="3" t="s">
+        <x:v>1200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1163" spans="1:1025">
+      <x:c r="A1163" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1163" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1163" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1163" s="3" t="s">
+        <x:v>1201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1164" spans="1:1025">
+      <x:c r="A1164" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1164" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1164" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1164" s="3" t="s">
+        <x:v>1202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1165" spans="1:1025">
+      <x:c r="A1165" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1165" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1165" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1165" s="3" t="s">
+        <x:v>1203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1166" spans="1:1025">
+      <x:c r="A1166" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1166" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1166" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1166" s="3" t="s">
+        <x:v>1204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1167" spans="1:1025">
+      <x:c r="A1167" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1167" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1167" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1167" s="3" t="s">
+        <x:v>1205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1168" spans="1:1025">
+      <x:c r="A1168" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1168" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1168" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1168" s="3" t="s">
+        <x:v>1206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1169" spans="1:1025">
+      <x:c r="A1169" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1169" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1169" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1169" s="3" t="s">
+        <x:v>1207</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1170" spans="1:1025">
+      <x:c r="A1170" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1170" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1170" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1170" s="3" t="s">
+        <x:v>1208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1171" spans="1:1025">
+      <x:c r="A1171" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1171" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1171" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1171" s="3" t="s">
+        <x:v>1209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1172" spans="1:1025">
+      <x:c r="A1172" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1172" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1172" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1172" s="3" t="s">
+        <x:v>1210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1173" spans="1:1025">
+      <x:c r="A1173" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1173" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1173" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1173" s="3" t="s">
+        <x:v>1211</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1174" spans="1:1025">
+      <x:c r="A1174" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1174" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1174" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1174" s="3" t="s">
+        <x:v>1212</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1175" spans="1:1025">
+      <x:c r="A1175" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1175" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1175" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1175" s="3" t="s">
+        <x:v>1213</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1176" spans="1:1025">
+      <x:c r="A1176" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1176" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1176" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1176" s="3" t="s">
+        <x:v>1214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1177" spans="1:1025">
+      <x:c r="A1177" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1177" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1177" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1177" s="3" t="s">
+        <x:v>1215</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1178" spans="1:1025">
+      <x:c r="A1178" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1178" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1178" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1178" s="3" t="s">
+        <x:v>1216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1179" spans="1:1025">
+      <x:c r="A1179" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1179" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1179" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1179" s="3" t="s">
+        <x:v>1217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1180" spans="1:1025">
+      <x:c r="A1180" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1180" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1180" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1180" s="3" t="s">
+        <x:v>1218</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1181" spans="1:1025">
+      <x:c r="A1181" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1181" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1181" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1181" s="3" t="s">
+        <x:v>1219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1182" spans="1:1025">
+      <x:c r="A1182" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1182" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1182" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1182" s="3" t="s">
+        <x:v>1220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1183" spans="1:1025">
+      <x:c r="A1183" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1183" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1183" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1183" s="3" t="s">
+        <x:v>1221</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1184" spans="1:1025">
+      <x:c r="A1184" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1184" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1184" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1184" s="3" t="s">
+        <x:v>1222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1185" spans="1:1025">
+      <x:c r="A1185" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1185" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1185" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1185" s="3" t="s">
+        <x:v>1223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1186" spans="1:1025">
+      <x:c r="A1186" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1186" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1186" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1186" s="3" t="s">
+        <x:v>1224</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1187" spans="1:1025">
+      <x:c r="A1187" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1187" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1187" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1187" s="3" t="s">
+        <x:v>1225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1188" spans="1:1025">
+      <x:c r="A1188" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1188" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1188" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1188" s="3" t="s">
+        <x:v>1226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1189" spans="1:1025">
+      <x:c r="A1189" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1189" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1189" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1189" s="3" t="s">
+        <x:v>1227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1190" spans="1:1025">
+      <x:c r="A1190" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1190" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1190" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1190" s="3" t="s">
+        <x:v>1228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1191" spans="1:1025">
+      <x:c r="A1191" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1191" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1191" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1191" s="3" t="s">
+        <x:v>1229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1192" spans="1:1025">
+      <x:c r="A1192" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1192" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1192" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1192" s="3" t="s">
+        <x:v>1230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1193" spans="1:1025">
+      <x:c r="A1193" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1193" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1193" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1193" s="3" t="s">
+        <x:v>1231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1194" spans="1:1025">
+      <x:c r="A1194" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1194" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1194" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1194" s="3" t="s">
+        <x:v>1232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1195" spans="1:1025">
+      <x:c r="A1195" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1195" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1195" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1195" s="3" t="s">
+        <x:v>1233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1196" spans="1:1025">
+      <x:c r="A1196" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1196" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1196" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1196" s="3" t="s">
+        <x:v>1234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1197" spans="1:1025">
+      <x:c r="A1197" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1197" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1197" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1197" s="3" t="s">
+        <x:v>1235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1198" spans="1:1025">
+      <x:c r="A1198" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1198" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1198" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1198" s="3" t="s">
+        <x:v>1236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1199" spans="1:1025">
+      <x:c r="A1199" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1199" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1199" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1199" s="3" t="s">
+        <x:v>1237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1200" spans="1:1025">
+      <x:c r="A1200" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1200" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="C1200" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1200" s="3" t="s">
+        <x:v>1238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1201" spans="1:1025">
+      <x:c r="A1201" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1201" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1201" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1201" s="3" t="s">
+        <x:v>1239</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1202" spans="1:1025">
+      <x:c r="A1202" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1202" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1202" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1202" s="3" t="s">
+        <x:v>1240</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1203" spans="1:1025">
+      <x:c r="A1203" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1203" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1203" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1203" s="3" t="s">
+        <x:v>1241</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1204" spans="1:1025">
+      <x:c r="A1204" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1204" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1204" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1204" s="3" t="s">
+        <x:v>1242</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1205" spans="1:1025">
+      <x:c r="A1205" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1205" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1205" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1205" s="3" t="s">
+        <x:v>1243</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1206" spans="1:1025">
+      <x:c r="A1206" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1206" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1206" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1206" s="3" t="s">
+        <x:v>1244</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1207" spans="1:1025">
+      <x:c r="A1207" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1207" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1207" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1207" s="3" t="s">
+        <x:v>1245</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1208" spans="1:1025">
+      <x:c r="A1208" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1208" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1208" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1208" s="3" t="s">
+        <x:v>1246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1209" spans="1:1025">
+      <x:c r="A1209" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1209" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1209" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1209" s="3" t="s">
+        <x:v>1247</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1210" spans="1:1025">
+      <x:c r="A1210" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1210" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1210" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1210" s="3" t="s">
+        <x:v>1248</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1211" spans="1:1025">
+      <x:c r="A1211" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1211" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1211" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1211" s="3" t="s">
+        <x:v>1249</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1212" spans="1:1025">
+      <x:c r="A1212" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1212" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1212" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1212" s="3" t="s">
+        <x:v>1250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1213" spans="1:1025">
+      <x:c r="A1213" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1213" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1213" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1213" s="3" t="s">
+        <x:v>1251</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1214" spans="1:1025">
+      <x:c r="A1214" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1214" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1214" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1214" s="3" t="s">
+        <x:v>1252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1215" spans="1:1025">
+      <x:c r="A1215" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1215" s="3" t="s">
+        <x:v>1253</x:v>
+      </x:c>
+      <x:c r="C1215" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1215" s="3" t="s">
+        <x:v>1254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1216" spans="1:1025">
+      <x:c r="A1216" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1216" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1216" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1216" s="3" t="s">
+        <x:v>1255</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1217" spans="1:1025">
+      <x:c r="A1217" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1217" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1217" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1217" s="3" t="s">
+        <x:v>1256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1218" spans="1:1025">
+      <x:c r="A1218" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1218" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1218" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1218" s="3" t="s">
+        <x:v>1257</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1219" spans="1:1025">
+      <x:c r="A1219" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1219" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1219" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1219" s="3" t="s">
+        <x:v>1258</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1220" spans="1:1025">
+      <x:c r="A1220" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1220" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1220" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1220" s="3" t="s">
+        <x:v>1259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1221" spans="1:1025">
+      <x:c r="A1221" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1221" s="3" t="s">
+        <x:v>1253</x:v>
+      </x:c>
+      <x:c r="C1221" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1221" s="3" t="s">
+        <x:v>1260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1222" spans="1:1025">
+      <x:c r="A1222" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1222" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1222" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1222" s="3" t="s">
+        <x:v>1261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1223" spans="1:1025">
+      <x:c r="A1223" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1223" s="3" t="s">
+        <x:v>1262</x:v>
+      </x:c>
+      <x:c r="C1223" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1223" s="3" t="s">
+        <x:v>1263</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1224" spans="1:1025">
+      <x:c r="A1224" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1224" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1224" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1224" s="3" t="s">
+        <x:v>1264</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1225" spans="1:1025">
+      <x:c r="A1225" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1225" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1225" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1225" s="3" t="s">
+        <x:v>1265</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1226" spans="1:1025">
+      <x:c r="A1226" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1226" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1226" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1226" s="3" t="s">
+        <x:v>1266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1227" spans="1:1025">
+      <x:c r="A1227" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1227" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1227" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1227" s="3" t="s">
+        <x:v>1267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1228" spans="1:1025">
+      <x:c r="A1228" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1228" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1228" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1228" s="3" t="s">
+        <x:v>1268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1229" spans="1:1025">
+      <x:c r="A1229" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1229" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1229" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1229" s="3" t="s">
+        <x:v>1269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1230" spans="1:1025">
+      <x:c r="A1230" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1230" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1230" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1230" s="3" t="s">
+        <x:v>1270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1231" spans="1:1025">
+      <x:c r="A1231" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1231" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1231" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1231" s="3" t="s">
+        <x:v>1271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1232" spans="1:1025">
+      <x:c r="A1232" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1232" s="3" t="s">
+        <x:v>1272</x:v>
+      </x:c>
+      <x:c r="C1232" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1232" s="3" t="s">
+        <x:v>1273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1233" spans="1:1025">
+      <x:c r="A1233" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1233" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1233" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1233" s="3" t="s">
+        <x:v>1274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1234" spans="1:1025">
+      <x:c r="A1234" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1234" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1234" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1234" s="3" t="s">
+        <x:v>1275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1235" spans="1:1025">
+      <x:c r="A1235" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1235" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1235" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1235" s="3" t="s">
+        <x:v>1276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1236" spans="1:1025">
+      <x:c r="A1236" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1236" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1236" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1236" s="3" t="s">
+        <x:v>1277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1237" spans="1:1025">
+      <x:c r="A1237" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1237" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1237" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1237" s="3" t="s">
+        <x:v>1278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1238" spans="1:1025">
+      <x:c r="A1238" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1238" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1238" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1238" s="3" t="s">
+        <x:v>1279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1239" spans="1:1025">
+      <x:c r="A1239" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1239" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1239" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1239" s="3" t="s">
+        <x:v>1280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1240" spans="1:1025">
+      <x:c r="A1240" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1240" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1240" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1240" s="3" t="s">
+        <x:v>1281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1241" spans="1:1025">
+      <x:c r="A1241" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1241" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1241" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1241" s="3" t="s">
+        <x:v>1282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1242" spans="1:1025">
+      <x:c r="A1242" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1242" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1242" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1242" s="3" t="s">
+        <x:v>1283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1243" spans="1:1025">
+      <x:c r="A1243" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1243" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1243" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1243" s="3" t="s">
+        <x:v>1284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1244" spans="1:1025">
+      <x:c r="A1244" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1244" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1244" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1244" s="3" t="s">
+        <x:v>1285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1245" spans="1:1025">
+      <x:c r="A1245" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1245" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1245" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1245" s="3" t="s">
+        <x:v>1286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1246" spans="1:1025">
+      <x:c r="A1246" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1246" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1246" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1246" s="3" t="s">
+        <x:v>1287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1247" spans="1:1025">
+      <x:c r="A1247" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1247" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1247" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1247" s="3" t="s">
+        <x:v>1288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1248" spans="1:1025">
+      <x:c r="A1248" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1248" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1248" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1248" s="3" t="s">
+        <x:v>1289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1249" spans="1:1025">
+      <x:c r="A1249" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1249" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1249" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1249" s="3" t="s">
+        <x:v>1290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1250" spans="1:1025">
+      <x:c r="A1250" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1250" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1250" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1250" s="3" t="s">
+        <x:v>1291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1251" spans="1:1025">
+      <x:c r="A1251" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1251" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="C1251" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1251" s="3" t="s">
+        <x:v>1292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1252" spans="1:1025">
+      <x:c r="A1252" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1252" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1252" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1252" s="3" t="s">
+        <x:v>1293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1253" spans="1:1025">
+      <x:c r="A1253" s="3" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B1253" s="3" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="C1253" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1253" s="3" t="s">
+        <x:v>1294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1254" spans="1:1025">
+      <x:c r="A1254" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1254" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1254" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1254" s="3" t="s">
+        <x:v>1295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1255" spans="1:1025">
+      <x:c r="A1255" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1255" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1255" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1255" s="3" t="s">
+        <x:v>1296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1256" spans="1:1025">
+      <x:c r="A1256" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1256" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1256" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1256" s="3" t="s">
+        <x:v>1297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1257" spans="1:1025">
+      <x:c r="A1257" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1257" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1257" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1257" s="3" t="s">
+        <x:v>1298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1258" spans="1:1025">
+      <x:c r="A1258" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1258" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1258" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1258" s="3" t="s">
+        <x:v>1299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1259" spans="1:1025">
+      <x:c r="A1259" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1259" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1259" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1259" s="3" t="s">
+        <x:v>1300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1260" spans="1:1025">
+      <x:c r="A1260" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1260" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1260" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1260" s="3" t="s">
+        <x:v>1301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1261" spans="1:1025">
+      <x:c r="A1261" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1261" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1261" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1261" s="3" t="s">
+        <x:v>1302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1262" spans="1:1025">
+      <x:c r="A1262" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1262" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1262" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1262" s="3" t="s">
+        <x:v>1303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1263" spans="1:1025">
+      <x:c r="A1263" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1263" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1263" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1263" s="3" t="s">
+        <x:v>1304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1264" spans="1:1025">
+      <x:c r="A1264" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1264" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1264" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1264" s="3" t="s">
+        <x:v>1305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1265" spans="1:1025">
+      <x:c r="A1265" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1265" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1265" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1265" s="3" t="s">
+        <x:v>1306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1266" spans="1:1025">
+      <x:c r="A1266" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1266" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1266" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1266" s="3" t="s">
+        <x:v>1307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1267" spans="1:1025">
+      <x:c r="A1267" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1267" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1267" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1267" s="3" t="s">
+        <x:v>1308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1268" spans="1:1025">
+      <x:c r="A1268" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1268" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1268" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1268" s="3" t="s">
+        <x:v>1309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1269" spans="1:1025">
+      <x:c r="A1269" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1269" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1269" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1269" s="3" t="s">
+        <x:v>1310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1270" spans="1:1025">
+      <x:c r="A1270" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1270" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1270" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1270" s="3" t="s">
+        <x:v>1311</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1271" spans="1:1025">
+      <x:c r="A1271" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1271" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1271" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1271" s="3" t="s">
+        <x:v>1312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1272" spans="1:1025">
+      <x:c r="A1272" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1272" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="C1272" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1272" s="3" t="s">
+        <x:v>1313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1273" spans="1:1025">
+      <x:c r="A1273" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1273" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1273" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1273" s="3" t="s">
+        <x:v>1314</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1274" spans="1:1025">
+      <x:c r="A1274" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1274" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1274" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1274" s="3" t="s">
+        <x:v>1315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1275" spans="1:1025">
+      <x:c r="A1275" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1275" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1275" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1275" s="3" t="s">
+        <x:v>1316</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1276" spans="1:1025">
+      <x:c r="A1276" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1276" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1276" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1276" s="3" t="s">
+        <x:v>1317</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1277" spans="1:1025">
+      <x:c r="A1277" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1277" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1277" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1277" s="3" t="s">
+        <x:v>1318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1278" spans="1:1025">
+      <x:c r="A1278" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1278" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1278" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1278" s="3" t="s">
+        <x:v>1319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1279" spans="1:1025">
+      <x:c r="A1279" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1279" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1279" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1279" s="3" t="s">
+        <x:v>1320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1280" spans="1:1025">
+      <x:c r="A1280" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1280" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1280" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1280" s="3" t="s">
+        <x:v>1321</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1281" spans="1:1025">
+      <x:c r="A1281" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1281" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1281" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1281" s="3" t="s">
+        <x:v>1322</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1282" spans="1:1025">
+      <x:c r="A1282" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1282" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1282" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1282" s="3" t="s">
+        <x:v>1323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1283" spans="1:1025">
+      <x:c r="A1283" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1283" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1283" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1283" s="3" t="s">
+        <x:v>1324</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1284" spans="1:1025">
+      <x:c r="A1284" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1284" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1284" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1284" s="3" t="s">
+        <x:v>1325</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1285" spans="1:1025">
+      <x:c r="A1285" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1285" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1285" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1285" s="3" t="s">
+        <x:v>1326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1286" spans="1:1025">
+      <x:c r="A1286" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1286" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1286" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1286" s="3" t="s">
+        <x:v>1327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1287" spans="1:1025">
+      <x:c r="A1287" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1287" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1287" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1287" s="3" t="s">
+        <x:v>1328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1288" spans="1:1025">
+      <x:c r="A1288" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1288" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1288" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1288" s="3" t="s">
+        <x:v>1329</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1289" spans="1:1025">
+      <x:c r="A1289" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1289" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1289" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1289" s="3" t="s">
+        <x:v>1330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1290" spans="1:1025">
+      <x:c r="A1290" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1290" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1290" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1290" s="3" t="s">
+        <x:v>1331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1291" spans="1:1025">
+      <x:c r="A1291" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1291" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1291" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1291" s="3" t="s">
+        <x:v>1332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1292" spans="1:1025">
+      <x:c r="A1292" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1292" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1292" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1292" s="3" t="s">
+        <x:v>1333</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1293" spans="1:1025">
+      <x:c r="A1293" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1293" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1293" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1293" s="3" t="s">
+        <x:v>1334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1294" spans="1:1025">
+      <x:c r="A1294" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1294" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1294" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1294" s="3" t="s">
+        <x:v>1335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1295" spans="1:1025">
+      <x:c r="A1295" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1295" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1295" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1295" s="3" t="s">
+        <x:v>1336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1296" spans="1:1025">
+      <x:c r="A1296" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1296" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1296" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1296" s="3" t="s">
+        <x:v>1337</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1297" spans="1:1025">
+      <x:c r="A1297" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1297" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1297" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1297" s="3" t="s">
+        <x:v>1338</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1298" spans="1:1025">
+      <x:c r="A1298" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1298" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1298" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1298" s="3" t="s">
+        <x:v>1339</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1299" spans="1:1025">
+      <x:c r="A1299" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1299" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1299" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1299" s="3" t="s">
+        <x:v>1340</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1300" spans="1:1025">
+      <x:c r="A1300" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1300" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1300" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1300" s="3" t="s">
+        <x:v>1341</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1301" spans="1:1025">
+      <x:c r="A1301" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1301" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1301" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1301" s="3" t="s">
+        <x:v>1342</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1302" spans="1:1025">
+      <x:c r="A1302" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1302" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1302" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1302" s="3" t="s">
+        <x:v>1343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1303" spans="1:1025">
+      <x:c r="A1303" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1303" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1303" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1303" s="3" t="s">
+        <x:v>1344</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1304" spans="1:1025">
+      <x:c r="A1304" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1304" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1304" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1304" s="3" t="s">
+        <x:v>1345</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1305" spans="1:1025">
+      <x:c r="A1305" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1305" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1305" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1305" s="3" t="s">
+        <x:v>1346</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1306" spans="1:1025">
+      <x:c r="A1306" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1306" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1306" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1306" s="3" t="s">
+        <x:v>1347</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1307" spans="1:1025">
+      <x:c r="A1307" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1307" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1307" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1307" s="3" t="s">
+        <x:v>1348</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1308" spans="1:1025">
+      <x:c r="A1308" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1308" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1308" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1308" s="3" t="s">
+        <x:v>1349</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1309" spans="1:1025">
+      <x:c r="A1309" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1309" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1309" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1309" s="3" t="s">
+        <x:v>1350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1310" spans="1:1025">
+      <x:c r="A1310" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1310" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1310" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1310" s="3" t="s">
+        <x:v>1351</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1311" spans="1:1025">
+      <x:c r="A1311" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1311" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1311" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1311" s="3" t="s">
+        <x:v>1352</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1312" spans="1:1025">
+      <x:c r="A1312" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1312" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1312" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1312" s="3" t="s">
+        <x:v>1353</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1313" spans="1:1025">
+      <x:c r="A1313" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1313" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1313" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1313" s="3" t="s">
+        <x:v>1354</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1314" spans="1:1025">
+      <x:c r="A1314" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1314" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1314" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1314" s="3" t="s">
+        <x:v>1355</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1315" spans="1:1025">
+      <x:c r="A1315" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1315" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1315" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1315" s="3" t="s">
+        <x:v>1356</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1316" spans="1:1025">
+      <x:c r="A1316" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1316" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1316" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1316" s="3" t="s">
+        <x:v>1357</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1317" spans="1:1025">
+      <x:c r="A1317" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1317" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1317" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1317" s="3" t="s">
+        <x:v>1358</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1318" spans="1:1025">
+      <x:c r="A1318" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1318" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1318" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1318" s="3" t="s">
+        <x:v>1359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1319" spans="1:1025">
+      <x:c r="A1319" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1319" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1319" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1319" s="3" t="s">
+        <x:v>1360</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1320" spans="1:1025">
+      <x:c r="A1320" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1320" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1320" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1320" s="3" t="s">
+        <x:v>1361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1321" spans="1:1025">
+      <x:c r="A1321" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1321" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1321" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1321" s="3" t="s">
+        <x:v>1362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1322" spans="1:1025">
+      <x:c r="A1322" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1322" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="C1322" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1322" s="3" t="s">
+        <x:v>1363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1323" spans="1:1025">
+      <x:c r="A1323" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1323" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1323" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1323" s="3" t="s">
+        <x:v>1364</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1324" spans="1:1025">
+      <x:c r="A1324" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1324" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1324" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1324" s="3" t="s">
+        <x:v>1365</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1325" spans="1:1025">
+      <x:c r="A1325" s="3" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1325" s="3" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="C1325" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1325" s="3" t="s">
+        <x:v>1368</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1326" spans="1:1025">
+      <x:c r="A1326" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1326" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1326" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1326" s="3" t="s">
+        <x:v>1369</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1327" spans="1:1025">
+      <x:c r="A1327" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1327" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1327" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1327" s="3" t="s">
+        <x:v>1370</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1328" spans="1:1025">
+      <x:c r="A1328" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1328" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1328" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1328" s="3" t="s">
+        <x:v>1371</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1329" spans="1:1025">
+      <x:c r="A1329" s="3" t="s">
+        <x:v>1372</x:v>
+      </x:c>
+      <x:c r="B1329" s="3" t="s">
+        <x:v>1373</x:v>
+      </x:c>
+      <x:c r="C1329" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1329" s="3" t="s">
+        <x:v>1374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1330" spans="1:1025">
+      <x:c r="A1330" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1330" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1330" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1330" s="3" t="s">
+        <x:v>1375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1331" spans="1:1025">
+      <x:c r="A1331" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1331" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1331" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1331" s="3" t="s">
+        <x:v>1376</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1332" spans="1:1025">
+      <x:c r="A1332" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1332" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1332" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1332" s="3" t="s">
+        <x:v>1377</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1333" spans="1:1025">
+      <x:c r="A1333" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1333" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1333" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1333" s="3" t="s">
+        <x:v>1378</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1334" spans="1:1025">
+      <x:c r="A1334" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1334" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1334" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1334" s="3" t="s">
+        <x:v>1379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1335" spans="1:1025">
+      <x:c r="A1335" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1335" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1335" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1335" s="3" t="s">
+        <x:v>1380</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1336" spans="1:1025">
+      <x:c r="A1336" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1336" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1336" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1336" s="3" t="s">
+        <x:v>1381</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1337" spans="1:1025">
+      <x:c r="A1337" s="3" t="s">
+        <x:v>1382</x:v>
+      </x:c>
+      <x:c r="B1337" s="3" t="s">
+        <x:v>1383</x:v>
+      </x:c>
+      <x:c r="C1337" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1337" s="3" t="s">
+        <x:v>1384</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1338" spans="1:1025">
+      <x:c r="A1338" s="3" t="s">
+        <x:v>1382</x:v>
+      </x:c>
+      <x:c r="B1338" s="3" t="s">
+        <x:v>1383</x:v>
+      </x:c>
+      <x:c r="C1338" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1338" s="3" t="s">
+        <x:v>1385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1339" spans="1:1025">
+      <x:c r="A1339" s="3" t="s">
+        <x:v>1382</x:v>
+      </x:c>
+      <x:c r="B1339" s="3" t="s">
+        <x:v>1383</x:v>
+      </x:c>
+      <x:c r="C1339" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1339" s="3" t="s">
+        <x:v>1386</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1340" spans="1:1025">
+      <x:c r="A1340" s="3" t="s">
+        <x:v>1382</x:v>
+      </x:c>
+      <x:c r="B1340" s="3" t="s">
+        <x:v>1383</x:v>
+      </x:c>
+      <x:c r="C1340" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1340" s="3" t="s">
+        <x:v>1387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1341" spans="1:1025">
+      <x:c r="A1341" s="3" t="s">
+        <x:v>1382</x:v>
+      </x:c>
+      <x:c r="B1341" s="3" t="s">
+        <x:v>1383</x:v>
+      </x:c>
+      <x:c r="C1341" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1341" s="3" t="s">
+        <x:v>1388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1342" spans="1:1025">
+      <x:c r="A1342" s="3" t="s">
+        <x:v>1382</x:v>
+      </x:c>
+      <x:c r="B1342" s="3" t="s">
+        <x:v>1383</x:v>
+      </x:c>
+      <x:c r="C1342" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1342" s="3" t="s">
+        <x:v>1389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1343" spans="1:1025">
+      <x:c r="A1343" s="3" t="s">
+        <x:v>1382</x:v>
+      </x:c>
+      <x:c r="B1343" s="3" t="s">
+        <x:v>1383</x:v>
+      </x:c>
+      <x:c r="C1343" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1343" s="3" t="s">
+        <x:v>1390</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1344" spans="1:1025">
+      <x:c r="A1344" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1344" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1344" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1344" s="3" t="s">
+        <x:v>1391</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1345" spans="1:1025">
+      <x:c r="A1345" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1345" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1345" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1345" s="3" t="s">
+        <x:v>1392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1346" spans="1:1025">
+      <x:c r="A1346" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1346" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1346" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1346" s="3" t="s">
+        <x:v>1393</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1347" spans="1:1025">
+      <x:c r="A1347" s="3" t="s">
+        <x:v>1372</x:v>
+      </x:c>
+      <x:c r="B1347" s="3" t="s">
+        <x:v>1373</x:v>
+      </x:c>
+      <x:c r="C1347" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1347" s="3" t="s">
+        <x:v>1394</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1348" spans="1:1025">
+      <x:c r="A1348" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1348" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1348" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1348" s="3" t="s">
+        <x:v>1395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1349" spans="1:1025">
+      <x:c r="A1349" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1349" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1349" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1349" s="3" t="s">
+        <x:v>1396</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1350" spans="1:1025">
+      <x:c r="A1350" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1350" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1350" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1350" s="3" t="s">
+        <x:v>1397</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1351" spans="1:1025">
+      <x:c r="A1351" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1351" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1351" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1351" s="3" t="s">
+        <x:v>1398</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1352" spans="1:1025">
+      <x:c r="A1352" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1352" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1352" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1352" s="3" t="s">
+        <x:v>1399</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1353" spans="1:1025">
+      <x:c r="A1353" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1353" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1353" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1353" s="3" t="s">
+        <x:v>1400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1354" spans="1:1025">
+      <x:c r="A1354" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1354" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1354" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1354" s="3" t="s">
+        <x:v>1401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1355" spans="1:1025">
+      <x:c r="A1355" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1355" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1355" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1355" s="3" t="s">
+        <x:v>1402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1356" spans="1:1025">
+      <x:c r="A1356" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1356" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1356" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1356" s="3" t="s">
+        <x:v>1403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1357" spans="1:1025">
+      <x:c r="A1357" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1357" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1357" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1357" s="3" t="s">
+        <x:v>1404</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1358" spans="1:1025">
+      <x:c r="A1358" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1358" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1358" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1358" s="3" t="s">
+        <x:v>1405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1359" spans="1:1025">
+      <x:c r="A1359" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1359" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1359" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1359" s="3" t="s">
+        <x:v>1406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1360" spans="1:1025">
+      <x:c r="A1360" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1360" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1360" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1360" s="3" t="s">
+        <x:v>1407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1361" spans="1:1025">
+      <x:c r="A1361" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1361" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1361" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1361" s="3" t="s">
+        <x:v>1408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1362" spans="1:1025">
+      <x:c r="A1362" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1362" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1362" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1362" s="3" t="s">
+        <x:v>1409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1363" spans="1:1025">
+      <x:c r="A1363" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1363" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="C1363" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1363" s="3" t="s">
+        <x:v>1410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1364" spans="1:1025">
+      <x:c r="A1364" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B1364" s="3" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="C1364" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1364" s="3" t="s">
+        <x:v>1411</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1365" spans="1:1025">
+      <x:c r="A1365" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1365" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1365" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1365" s="3" t="s">
+        <x:v>1412</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1366" spans="1:1025">
+      <x:c r="A1366" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1366" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1366" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1366" s="3" t="s">
+        <x:v>1413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1367" spans="1:1025">
+      <x:c r="A1367" s="3" t="s">
+        <x:v>1372</x:v>
+      </x:c>
+      <x:c r="B1367" s="3" t="s">
+        <x:v>1373</x:v>
+      </x:c>
+      <x:c r="C1367" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1367" s="3" t="s">
+        <x:v>1414</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1368" spans="1:1025">
+      <x:c r="A1368" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1368" s="3" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="C1368" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1368" s="3" t="s">
+        <x:v>1415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1369" spans="1:1025">
+      <x:c r="A1369" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1369" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1369" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1369" s="3" t="s">
+        <x:v>1416</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1370" spans="1:1025">
+      <x:c r="A1370" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1370" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1370" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1370" s="3" t="s">
+        <x:v>1417</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1371" spans="1:1025">
+      <x:c r="A1371" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1371" s="3" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="C1371" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1371" s="3" t="s">
+        <x:v>1418</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1372" spans="1:1025">
+      <x:c r="A1372" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1372" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1372" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1372" s="3" t="s">
+        <x:v>1419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1373" spans="1:1025">
+      <x:c r="A1373" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1373" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1373" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1373" s="3" t="s">
+        <x:v>1420</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1374" spans="1:1025">
+      <x:c r="A1374" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1374" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1374" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1374" s="3" t="s">
+        <x:v>1421</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1375" spans="1:1025">
+      <x:c r="A1375" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1375" s="3" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C1375" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1375" s="3" t="s">
+        <x:v>1422</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1376" spans="1:1025">
+      <x:c r="A1376" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1376" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1376" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1376" s="3" t="s">
+        <x:v>1423</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1377" spans="1:1025">
+      <x:c r="A1377" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1377" s="3" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C1377" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1377" s="3" t="s">
+        <x:v>1424</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1378" spans="1:1025">
+      <x:c r="A1378" s="3" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B1378" s="3" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="C1378" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1378" s="3" t="s">
+        <x:v>1425</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1379" spans="1:1025">
+      <x:c r="A1379" s="3" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B1379" s="3" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="C1379" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1379" s="3" t="s">
+        <x:v>1426</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1380" spans="1:1025">
+      <x:c r="A1380" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1380" s="3" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="C1380" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1380" s="3" t="s">
+        <x:v>1427</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1381" spans="1:1025">
+      <x:c r="A1381" s="3" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="B1381" s="3" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="C1381" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1381" s="3" t="s">
+        <x:v>1428</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1382" spans="1:1025">
+      <x:c r="A1382" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1382" s="3" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C1382" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1382" s="3" t="s">
+        <x:v>1429</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1383" spans="1:1025">
+      <x:c r="A1383" s="3" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="B1383" s="3" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+      <x:c r="C1383" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1383" s="3" t="s">
+        <x:v>1430</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1384" spans="1:1025">
+      <x:c r="A1384" s="3" t="s">
+        <x:v>1431</x:v>
+      </x:c>
+      <x:c r="B1384" s="3" t="s">
+        <x:v>1432</x:v>
+      </x:c>
+      <x:c r="C1384" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1384" s="3" t="s">
+        <x:v>1433</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1385" spans="1:1025">
+      <x:c r="A1385" s="3" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B1385" s="3" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C1385" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1385" s="3" t="s">
+        <x:v>1434</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1386" spans="1:1025">
+      <x:c r="A1386" s="3" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B1386" s="3" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="C1386" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1386" s="3" t="s">
+        <x:v>1435</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1387" spans="1:1025">
+      <x:c r="A1387" s="3" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1387" s="3" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="C1387" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1387" s="3" t="s">
+        <x:v>1436</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1388" spans="1:1025">
+      <x:c r="A1388" s="3" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1388" s="3" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="C1388" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1388" s="3" t="s">
+        <x:v>1437</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1389" spans="1:1025">
+      <x:c r="A1389" s="3" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1389" s="3" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="C1389" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1389" s="3" t="s">
+        <x:v>1438</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1390" spans="1:1025">
+      <x:c r="A1390" s="3" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1390" s="3" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="C1390" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1390" s="3" t="s">
+        <x:v>1439</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1391" spans="1:1025">
+      <x:c r="A1391" s="3" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1391" s="3" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="C1391" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1391" s="3" t="s">
+        <x:v>1440</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1392" spans="1:1025">
+      <x:c r="A1392" s="3" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1392" s="3" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="C1392" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1392" s="3" t="s">
+        <x:v>1441</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1393" spans="1:1025">
+      <x:c r="A1393" s="3" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1393" s="3" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="C1393" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1393" s="3" t="s">
+        <x:v>1442</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1394" spans="1:1025">
+      <x:c r="A1394" s="3" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1394" s="3" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="C1394" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1394" s="3" t="s">
+        <x:v>1443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="1395" spans="1:1025">
+      <x:c r="A1395" s="3" t="s">
+        <x:v>1366</x:v>
+      </x:c>
+      <x:c r="B1395" s="3" t="s">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="C1395" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D1395" s="3" t="s">
+        <x:v>1444</x:v>
       </x:c>
     </x:row>
     <x:row r="1048576" spans="1:1025" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
